--- a/Code/Results/Cases/Case_0_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9867081718675316</v>
+        <v>1.043318213101276</v>
       </c>
       <c r="D2">
-        <v>0.9952246865061553</v>
+        <v>1.045962672907326</v>
       </c>
       <c r="E2">
-        <v>0.9941297040249923</v>
+        <v>1.041246706124911</v>
       </c>
       <c r="F2">
-        <v>0.9947693108475214</v>
+        <v>1.049395666267763</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037756336352291</v>
+        <v>1.036788601033545</v>
       </c>
       <c r="J2">
-        <v>1.009293839880412</v>
+        <v>1.048389304924778</v>
       </c>
       <c r="K2">
-        <v>1.006750952385677</v>
+        <v>1.048729441353454</v>
       </c>
       <c r="L2">
-        <v>1.005671431791761</v>
+        <v>1.044026763069418</v>
       </c>
       <c r="M2">
-        <v>1.006302001711489</v>
+        <v>1.05215284279171</v>
       </c>
       <c r="N2">
-        <v>1.010727152900664</v>
+        <v>1.049878137989705</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9957557464012715</v>
+        <v>1.045025910918264</v>
       </c>
       <c r="D3">
-        <v>1.003570630918253</v>
+        <v>1.047585557079674</v>
       </c>
       <c r="E3">
-        <v>1.001740489847297</v>
+        <v>1.042725417895944</v>
       </c>
       <c r="F3">
-        <v>1.003780216135515</v>
+        <v>1.051158425463515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04038593337564</v>
+        <v>1.037179307024748</v>
       </c>
       <c r="J3">
-        <v>1.016362786581982</v>
+        <v>1.049740042365018</v>
       </c>
       <c r="K3">
-        <v>1.014158027815009</v>
+        <v>1.05016176319882</v>
       </c>
       <c r="L3">
-        <v>1.012351149116013</v>
+        <v>1.045314309572809</v>
       </c>
       <c r="M3">
-        <v>1.014364955815939</v>
+        <v>1.053725386692558</v>
       </c>
       <c r="N3">
-        <v>1.01780613831737</v>
+        <v>1.051230793632042</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001396370686163</v>
+        <v>1.046127905750465</v>
       </c>
       <c r="D4">
-        <v>1.00877952035897</v>
+        <v>1.048633018192531</v>
       </c>
       <c r="E4">
-        <v>1.006491777600944</v>
+        <v>1.043679734442459</v>
       </c>
       <c r="F4">
-        <v>1.00940381781225</v>
+        <v>1.052296303322753</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042010001975896</v>
+        <v>1.037429441038133</v>
       </c>
       <c r="J4">
-        <v>1.020764424480736</v>
+        <v>1.050610776970278</v>
       </c>
       <c r="K4">
-        <v>1.018773126676913</v>
+        <v>1.051085449548366</v>
       </c>
       <c r="L4">
-        <v>1.016512478952567</v>
+        <v>1.046144431768193</v>
       </c>
       <c r="M4">
-        <v>1.019390056635881</v>
+        <v>1.054739743071068</v>
       </c>
       <c r="N4">
-        <v>1.022214027046815</v>
+        <v>1.052102764780316</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00372002820166</v>
+        <v>1.046590481010069</v>
       </c>
       <c r="D5">
-        <v>1.010926588016313</v>
+        <v>1.049072748844756</v>
       </c>
       <c r="E5">
-        <v>1.008450476838456</v>
+        <v>1.044080340274463</v>
       </c>
       <c r="F5">
-        <v>1.011721803508126</v>
+        <v>1.052774024865017</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042675281249335</v>
+        <v>1.037533960122873</v>
       </c>
       <c r="J5">
-        <v>1.022576294379623</v>
+        <v>1.050976059627987</v>
       </c>
       <c r="K5">
-        <v>1.020673564796114</v>
+        <v>1.051473032176704</v>
       </c>
       <c r="L5">
-        <v>1.018225901563391</v>
+        <v>1.046492706318832</v>
       </c>
       <c r="M5">
-        <v>1.021459680542162</v>
+        <v>1.055165429765128</v>
       </c>
       <c r="N5">
-        <v>1.024028470008782</v>
+        <v>1.052468566181298</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00410748086871</v>
+        <v>1.046668108613301</v>
       </c>
       <c r="D6">
-        <v>1.011284667189573</v>
+        <v>1.049146545464382</v>
       </c>
       <c r="E6">
-        <v>1.008777154341594</v>
+        <v>1.044147569566487</v>
       </c>
       <c r="F6">
-        <v>1.012108387675064</v>
+        <v>1.052854199179081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042785988437876</v>
+        <v>1.037551472085828</v>
       </c>
       <c r="J6">
-        <v>1.022878326364816</v>
+        <v>1.051037347135061</v>
       </c>
       <c r="K6">
-        <v>1.020990401982869</v>
+        <v>1.051538066250931</v>
       </c>
       <c r="L6">
-        <v>1.018511549956845</v>
+        <v>1.046551141898685</v>
       </c>
       <c r="M6">
-        <v>1.021804745577468</v>
+        <v>1.055236860923855</v>
       </c>
       <c r="N6">
-        <v>1.024330930914038</v>
+        <v>1.052529940723662</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001427602421222</v>
+        <v>1.046134089447216</v>
       </c>
       <c r="D7">
-        <v>1.008808373710831</v>
+        <v>1.048638896320891</v>
       </c>
       <c r="E7">
-        <v>1.006518098621079</v>
+        <v>1.043685089654768</v>
       </c>
       <c r="F7">
-        <v>1.009434968075305</v>
+        <v>1.052302689164817</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042018958827748</v>
+        <v>1.0374308401256</v>
       </c>
       <c r="J7">
-        <v>1.020788783000566</v>
+        <v>1.050615660920867</v>
       </c>
       <c r="K7">
-        <v>1.018798673118786</v>
+        <v>1.051090631318141</v>
       </c>
       <c r="L7">
-        <v>1.016535512115735</v>
+        <v>1.046149088199942</v>
       </c>
       <c r="M7">
-        <v>1.019417875906459</v>
+        <v>1.054745434040737</v>
       </c>
       <c r="N7">
-        <v>1.022238420158536</v>
+        <v>1.052107655666676</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9898123431911909</v>
+        <v>1.043895967659783</v>
       </c>
       <c r="D8">
-        <v>0.9980868596051539</v>
+        <v>1.04651169163739</v>
       </c>
       <c r="E8">
-        <v>0.9967394727365756</v>
+        <v>1.041746970286806</v>
       </c>
       <c r="F8">
-        <v>0.9978596236373303</v>
+        <v>1.049991976413026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038661736738296</v>
+        <v>1.036921199100896</v>
       </c>
       <c r="J8">
-        <v>1.011720252449635</v>
+        <v>1.048846479804285</v>
       </c>
       <c r="K8">
-        <v>1.009292808108513</v>
+        <v>1.049214154975895</v>
       </c>
       <c r="L8">
-        <v>1.007963791829061</v>
+        <v>1.044462524566288</v>
       </c>
       <c r="M8">
-        <v>1.009068665951695</v>
+        <v>1.052684959051752</v>
       </c>
       <c r="N8">
-        <v>1.013157011254048</v>
+        <v>1.050335962109979</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9675262253648054</v>
+        <v>1.039928468516762</v>
       </c>
       <c r="D9">
-        <v>0.9775680821840387</v>
+        <v>1.042742365438468</v>
       </c>
       <c r="E9">
-        <v>0.978037614830745</v>
+        <v>1.038312010192486</v>
       </c>
       <c r="F9">
-        <v>0.9757015842634535</v>
+        <v>1.045898508462701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032097857052082</v>
+        <v>1.036002445126845</v>
       </c>
       <c r="J9">
-        <v>0.9942802375866535</v>
+        <v>1.045703283961065</v>
       </c>
       <c r="K9">
-        <v>0.9910358975351111</v>
+        <v>1.045883104492734</v>
       </c>
       <c r="L9">
-        <v>0.9914973586884933</v>
+        <v>1.041467064295643</v>
       </c>
       <c r="M9">
-        <v>0.9892015849909791</v>
+        <v>1.04902913057492</v>
       </c>
       <c r="N9">
-        <v>0.9956922295695638</v>
+        <v>1.047188302568133</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.951146522236258</v>
+        <v>1.037266635363784</v>
       </c>
       <c r="D10">
-        <v>0.9625327342808017</v>
+        <v>1.040214576133379</v>
       </c>
       <c r="E10">
-        <v>0.9643460402887066</v>
+        <v>1.036008013235276</v>
       </c>
       <c r="F10">
-        <v>0.9594569764485398</v>
+        <v>1.043153998043618</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027196012467509</v>
+        <v>1.035375764061804</v>
       </c>
       <c r="J10">
-        <v>0.9814420826867856</v>
+        <v>1.043589813655547</v>
       </c>
       <c r="K10">
-        <v>0.9776131083364101</v>
+        <v>1.043645183799177</v>
       </c>
       <c r="L10">
-        <v>0.9793903256983933</v>
+        <v>1.039453583179566</v>
       </c>
       <c r="M10">
-        <v>0.9745989752234676</v>
+        <v>1.046574229453325</v>
       </c>
       <c r="N10">
-        <v>0.982835843017181</v>
+        <v>1.045071830892363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9436086019162651</v>
+        <v>1.036109829505709</v>
       </c>
       <c r="D11">
-        <v>0.9556268769564142</v>
+        <v>1.039116291943823</v>
       </c>
       <c r="E11">
-        <v>0.9580614141198358</v>
+        <v>1.035006863357959</v>
       </c>
       <c r="F11">
-        <v>0.9519925289637561</v>
+        <v>1.041961699405263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024923457208452</v>
+        <v>1.035100982775788</v>
       </c>
       <c r="J11">
-        <v>0.9755312249002404</v>
+        <v>1.042670219635152</v>
       </c>
       <c r="K11">
-        <v>0.9714370972994752</v>
+        <v>1.042671881201568</v>
       </c>
       <c r="L11">
-        <v>0.9738200733140866</v>
+        <v>1.038577652545029</v>
       </c>
       <c r="M11">
-        <v>0.9678803719962423</v>
+        <v>1.045506841745804</v>
       </c>
       <c r="N11">
-        <v>0.9769165911345941</v>
+        <v>1.04415093094298</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9407328941297384</v>
+        <v>1.035679488915992</v>
       </c>
       <c r="D12">
-        <v>0.9529945776739053</v>
+        <v>1.038707762866084</v>
       </c>
       <c r="E12">
-        <v>0.9556666237401363</v>
+        <v>1.034634450737414</v>
       </c>
       <c r="F12">
-        <v>0.9491467083845616</v>
+        <v>1.041518221222452</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024054140522906</v>
+        <v>1.034998397194114</v>
       </c>
       <c r="J12">
-        <v>0.9732760373153904</v>
+        <v>1.042327958775622</v>
       </c>
       <c r="K12">
-        <v>0.9690813538544988</v>
+        <v>1.042309696947719</v>
       </c>
       <c r="L12">
-        <v>0.9716954937401592</v>
+        <v>1.038251666403589</v>
       </c>
       <c r="M12">
-        <v>0.9653176338062873</v>
+        <v>1.045109688609546</v>
       </c>
       <c r="N12">
-        <v>0.9746582009247</v>
+        <v>1.043808184033772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.941353334131186</v>
+        <v>1.035771828204438</v>
       </c>
       <c r="D13">
-        <v>0.9535623944078087</v>
+        <v>1.038795420134084</v>
       </c>
       <c r="E13">
-        <v>0.9561831729309777</v>
+        <v>1.034714359224552</v>
       </c>
       <c r="F13">
-        <v>0.9497606135949843</v>
+        <v>1.041613376489314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024241799792035</v>
+        <v>1.035020425744527</v>
       </c>
       <c r="J13">
-        <v>0.9737626041153868</v>
+        <v>1.042401406020184</v>
       </c>
       <c r="K13">
-        <v>0.9695895884975754</v>
+        <v>1.042387416644239</v>
       </c>
       <c r="L13">
-        <v>0.972153850705241</v>
+        <v>1.038321620106967</v>
       </c>
       <c r="M13">
-        <v>0.9658705287352864</v>
+        <v>1.045194910250992</v>
       </c>
       <c r="N13">
-        <v>0.9751454587053625</v>
+        <v>1.043881735581845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9433724985311377</v>
+        <v>1.036074270812478</v>
       </c>
       <c r="D14">
-        <v>0.9554107103361282</v>
+        <v>1.039082534677328</v>
       </c>
       <c r="E14">
-        <v>0.9578647367727601</v>
+        <v>1.034976090735163</v>
       </c>
       <c r="F14">
-        <v>0.9517588408269352</v>
+        <v>1.041925053816688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024852130175286</v>
+        <v>1.035092513648697</v>
       </c>
       <c r="J14">
-        <v>0.9753460706503118</v>
+        <v>1.042641942257135</v>
       </c>
       <c r="K14">
-        <v>0.9712436749192609</v>
+        <v>1.042641956415089</v>
       </c>
       <c r="L14">
-        <v>0.9736456285537591</v>
+        <v>1.038550719288185</v>
       </c>
       <c r="M14">
-        <v>0.9676699550337325</v>
+        <v>1.045474026869214</v>
       </c>
       <c r="N14">
-        <v>0.9767311739443932</v>
+        <v>1.044122613407843</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9446062351244957</v>
+        <v>1.036260528821849</v>
       </c>
       <c r="D15">
-        <v>0.9565403631184287</v>
+        <v>1.039259358416743</v>
       </c>
       <c r="E15">
-        <v>0.9588925713400335</v>
+        <v>1.035137280033871</v>
       </c>
       <c r="F15">
-        <v>0.9529800330107941</v>
+        <v>1.042117007734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025224749385975</v>
+        <v>1.03513686038223</v>
       </c>
       <c r="J15">
-        <v>0.976313570362387</v>
+        <v>1.042790053670284</v>
       </c>
       <c r="K15">
-        <v>0.9722544033762139</v>
+        <v>1.04279869934381</v>
       </c>
       <c r="L15">
-        <v>0.9745571941299233</v>
+        <v>1.038691791429809</v>
       </c>
       <c r="M15">
-        <v>0.9687694869463561</v>
+        <v>1.045645909504411</v>
       </c>
       <c r="N15">
-        <v>0.9777000476170331</v>
+        <v>1.044270935156187</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9516366854739156</v>
+        <v>1.037343318414627</v>
       </c>
       <c r="D16">
-        <v>0.9629820930712089</v>
+        <v>1.040287385562145</v>
       </c>
       <c r="E16">
-        <v>0.9647550675931291</v>
+        <v>1.036074381192845</v>
       </c>
       <c r="F16">
-        <v>0.9599426069268435</v>
+        <v>1.04323304309173</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027343458555741</v>
+        <v>1.035393927810033</v>
       </c>
       <c r="J16">
-        <v>0.9818264042958278</v>
+        <v>1.043650749144492</v>
       </c>
       <c r="K16">
-        <v>0.9780147530747413</v>
+        <v>1.043709687477887</v>
       </c>
       <c r="L16">
-        <v>0.9797525877101575</v>
+        <v>1.039511628698785</v>
       </c>
       <c r="M16">
-        <v>0.9750359060893625</v>
+        <v>1.046644974336259</v>
       </c>
       <c r="N16">
-        <v>0.9832207104069904</v>
+        <v>1.045132852916692</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9559216974289777</v>
+        <v>1.038021382585736</v>
       </c>
       <c r="D17">
-        <v>0.9669119161701522</v>
+        <v>1.040931228469308</v>
       </c>
       <c r="E17">
-        <v>0.9683326372665275</v>
+        <v>1.036661251660239</v>
       </c>
       <c r="F17">
-        <v>0.9641892730889885</v>
+        <v>1.043932043566626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028630581214147</v>
+        <v>1.035554259051076</v>
       </c>
       <c r="J17">
-        <v>0.9851858611916888</v>
+        <v>1.04418943977703</v>
       </c>
       <c r="K17">
-        <v>0.981526085834954</v>
+        <v>1.044279972960689</v>
       </c>
       <c r="L17">
-        <v>0.982919667214834</v>
+        <v>1.040024789121714</v>
       </c>
       <c r="M17">
-        <v>0.9788557455619432</v>
+        <v>1.04727047164136</v>
       </c>
       <c r="N17">
-        <v>0.9865849381169787</v>
+        <v>1.045672308551716</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9583787772036778</v>
+        <v>1.038416480543237</v>
       </c>
       <c r="D18">
-        <v>0.9691665524965765</v>
+        <v>1.04130641190859</v>
       </c>
       <c r="E18">
-        <v>0.9703855439596731</v>
+        <v>1.03700322618195</v>
       </c>
       <c r="F18">
-        <v>0.966625404421564</v>
+        <v>1.044339382947308</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02936706539553</v>
+        <v>1.03564744751051</v>
       </c>
       <c r="J18">
-        <v>0.9871119448515985</v>
+        <v>1.044503220786124</v>
       </c>
       <c r="K18">
-        <v>0.9835396181310383</v>
+        <v>1.044612200046359</v>
       </c>
       <c r="L18">
-        <v>0.9847358213779126</v>
+        <v>1.040323714173226</v>
       </c>
       <c r="M18">
-        <v>0.9810462165333081</v>
+        <v>1.047634890315605</v>
       </c>
       <c r="N18">
-        <v>0.9885137570366106</v>
+        <v>1.045986535165835</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9592096468589247</v>
+        <v>1.038551130520803</v>
       </c>
       <c r="D19">
-        <v>0.9699291661874816</v>
+        <v>1.041434279324186</v>
       </c>
       <c r="E19">
-        <v>0.9710799834178572</v>
+        <v>1.037119773917011</v>
       </c>
       <c r="F19">
-        <v>0.9674493623834645</v>
+        <v>1.044478211963448</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029615839261951</v>
+        <v>1.035679166540242</v>
       </c>
       <c r="J19">
-        <v>0.987763204780124</v>
+        <v>1.044610139820913</v>
       </c>
       <c r="K19">
-        <v>0.984220509970094</v>
+        <v>1.044725411674019</v>
       </c>
       <c r="L19">
-        <v>0.9853499719056757</v>
+        <v>1.040425573681856</v>
       </c>
       <c r="M19">
-        <v>0.9817869484110746</v>
+        <v>1.047759076370774</v>
       </c>
       <c r="N19">
-        <v>0.9891659418289349</v>
+        <v>1.046093606037917</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9554663897988049</v>
+        <v>1.037948674781229</v>
       </c>
       <c r="D20">
-        <v>0.9664942200419605</v>
+        <v>1.040862187493874</v>
       </c>
       <c r="E20">
-        <v>0.9679523428282485</v>
+        <v>1.036598320985246</v>
       </c>
       <c r="F20">
-        <v>0.9637379306628771</v>
+        <v>1.043857086430821</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028493979015006</v>
+        <v>1.035537091200918</v>
       </c>
       <c r="J20">
-        <v>0.984828926074787</v>
+        <v>1.044131687757814</v>
       </c>
       <c r="K20">
-        <v>0.9811529753266686</v>
+        <v>1.044218829324127</v>
       </c>
       <c r="L20">
-        <v>0.9825831332477579</v>
+        <v>1.039969772585509</v>
       </c>
       <c r="M20">
-        <v>0.9784498508806132</v>
+        <v>1.047203405607988</v>
       </c>
       <c r="N20">
-        <v>0.9862274961112698</v>
+        <v>1.045614474518009</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9427800769608533</v>
+        <v>1.035985227131301</v>
       </c>
       <c r="D21">
-        <v>0.9548683508527774</v>
+        <v>1.03899800267242</v>
       </c>
       <c r="E21">
-        <v>0.957371287523476</v>
+        <v>1.034899032380141</v>
       </c>
       <c r="F21">
-        <v>0.9511725098984499</v>
+        <v>1.04183328947183</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024673122215537</v>
+        <v>1.035071299942006</v>
       </c>
       <c r="J21">
-        <v>0.974881486235907</v>
+        <v>1.042571129293765</v>
       </c>
       <c r="K21">
-        <v>0.9707583541074027</v>
+        <v>1.042567019036881</v>
       </c>
       <c r="L21">
-        <v>0.9732079268557875</v>
+        <v>1.03848327269344</v>
       </c>
       <c r="M21">
-        <v>0.9671419919382196</v>
+        <v>1.045391852829451</v>
       </c>
       <c r="N21">
-        <v>0.9762659297668312</v>
+        <v>1.044051699881942</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9343594496911763</v>
+        <v>1.034746951767993</v>
       </c>
       <c r="D22">
-        <v>0.9471651544127183</v>
+        <v>1.037822566633807</v>
       </c>
       <c r="E22">
-        <v>0.9503646445577022</v>
+        <v>1.033827484915468</v>
       </c>
       <c r="F22">
-        <v>0.9428431451915992</v>
+        <v>1.040557336216914</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022123356858984</v>
+        <v>1.034775429790635</v>
       </c>
       <c r="J22">
-        <v>0.9682777495189617</v>
+        <v>1.041585987064986</v>
       </c>
       <c r="K22">
-        <v>0.9638613328572674</v>
+        <v>1.041524655404572</v>
       </c>
       <c r="L22">
-        <v>0.9669879658235498</v>
+        <v>1.037545019641464</v>
       </c>
       <c r="M22">
-        <v>0.9596387924119071</v>
+        <v>1.044248927560561</v>
       </c>
       <c r="N22">
-        <v>0.9696528149862887</v>
+        <v>1.043065158638202</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9388689311869527</v>
+        <v>1.03540374919986</v>
       </c>
       <c r="D23">
-        <v>0.9512890656395475</v>
+        <v>1.03844601047015</v>
       </c>
       <c r="E23">
-        <v>0.9541152148633054</v>
+        <v>1.034395834779091</v>
       </c>
       <c r="F23">
-        <v>0.947302663852212</v>
+        <v>1.041234082228255</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023490035297494</v>
+        <v>1.03493256307302</v>
       </c>
       <c r="J23">
-        <v>0.9718142530118771</v>
+        <v>1.042108609587797</v>
       </c>
       <c r="K23">
-        <v>0.967554562935292</v>
+        <v>1.042077597837236</v>
       </c>
       <c r="L23">
-        <v>0.9703185608596572</v>
+        <v>1.038042754125237</v>
       </c>
       <c r="M23">
-        <v>0.9636566679549848</v>
+        <v>1.044855192085349</v>
       </c>
       <c r="N23">
-        <v>0.9731943407198068</v>
+        <v>1.04358852334494</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9556722537685414</v>
+        <v>1.037981529560808</v>
       </c>
       <c r="D24">
-        <v>0.9666830744522255</v>
+        <v>1.040893385248661</v>
       </c>
       <c r="E24">
-        <v>0.9681242855481991</v>
+        <v>1.036626757689905</v>
       </c>
       <c r="F24">
-        <v>0.9639419985710714</v>
+        <v>1.043890957494845</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028555747580037</v>
+        <v>1.035544849633181</v>
       </c>
       <c r="J24">
-        <v>0.9849903125012158</v>
+        <v>1.04415778473208</v>
       </c>
       <c r="K24">
-        <v>0.9813216742135512</v>
+        <v>1.044246458770714</v>
       </c>
       <c r="L24">
-        <v>0.9827352942594515</v>
+        <v>1.03999463340345</v>
       </c>
       <c r="M24">
-        <v>0.9786333727693546</v>
+        <v>1.047233711169441</v>
       </c>
       <c r="N24">
-        <v>0.9863891117249358</v>
+        <v>1.045640608552971</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9735312267118517</v>
+        <v>1.040957059822397</v>
       </c>
       <c r="D25">
-        <v>0.9830899726400041</v>
+        <v>1.04371939159953</v>
       </c>
       <c r="E25">
-        <v>0.9830687617462687</v>
+        <v>1.039202446152456</v>
       </c>
       <c r="F25">
-        <v>0.9816656307926398</v>
+        <v>1.046959435784122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033880019170047</v>
+        <v>1.036242444834491</v>
       </c>
       <c r="J25">
-        <v>0.9989834272435338</v>
+        <v>1.046518994002345</v>
       </c>
       <c r="K25">
-        <v>0.9959565924867494</v>
+        <v>1.046747238722924</v>
       </c>
       <c r="L25">
-        <v>0.9959357255795416</v>
+        <v>1.042244320767399</v>
       </c>
       <c r="M25">
-        <v>0.9945553922422053</v>
+        <v>1.049977302236462</v>
       </c>
       <c r="N25">
-        <v>1.00040209829522</v>
+        <v>1.048005171011235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043318213101276</v>
+        <v>0.9867081718675317</v>
       </c>
       <c r="D2">
-        <v>1.045962672907326</v>
+        <v>0.9952246865061548</v>
       </c>
       <c r="E2">
-        <v>1.041246706124911</v>
+        <v>0.9941297040249919</v>
       </c>
       <c r="F2">
-        <v>1.049395666267763</v>
+        <v>0.9947693108475214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036788601033545</v>
+        <v>1.037756336352291</v>
       </c>
       <c r="J2">
-        <v>1.048389304924778</v>
+        <v>1.009293839880411</v>
       </c>
       <c r="K2">
-        <v>1.048729441353454</v>
+        <v>1.006750952385676</v>
       </c>
       <c r="L2">
-        <v>1.044026763069418</v>
+        <v>1.005671431791761</v>
       </c>
       <c r="M2">
-        <v>1.05215284279171</v>
+        <v>1.006302001711489</v>
       </c>
       <c r="N2">
-        <v>1.049878137989705</v>
+        <v>1.010727152900663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045025910918264</v>
+        <v>0.9957557464012697</v>
       </c>
       <c r="D3">
-        <v>1.047585557079674</v>
+        <v>1.003570630918252</v>
       </c>
       <c r="E3">
-        <v>1.042725417895944</v>
+        <v>1.001740489847295</v>
       </c>
       <c r="F3">
-        <v>1.051158425463515</v>
+        <v>1.003780216135513</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037179307024748</v>
+        <v>1.040385933375639</v>
       </c>
       <c r="J3">
-        <v>1.049740042365018</v>
+        <v>1.016362786581981</v>
       </c>
       <c r="K3">
-        <v>1.05016176319882</v>
+        <v>1.014158027815007</v>
       </c>
       <c r="L3">
-        <v>1.045314309572809</v>
+        <v>1.012351149116011</v>
       </c>
       <c r="M3">
-        <v>1.053725386692558</v>
+        <v>1.014364955815938</v>
       </c>
       <c r="N3">
-        <v>1.051230793632042</v>
+        <v>1.017806138317368</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046127905750465</v>
+        <v>1.001396370686163</v>
       </c>
       <c r="D4">
-        <v>1.048633018192531</v>
+        <v>1.008779520358969</v>
       </c>
       <c r="E4">
-        <v>1.043679734442459</v>
+        <v>1.006491777600943</v>
       </c>
       <c r="F4">
-        <v>1.052296303322753</v>
+        <v>1.00940381781225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037429441038133</v>
+        <v>1.042010001975896</v>
       </c>
       <c r="J4">
-        <v>1.050610776970278</v>
+        <v>1.020764424480736</v>
       </c>
       <c r="K4">
-        <v>1.051085449548366</v>
+        <v>1.018773126676913</v>
       </c>
       <c r="L4">
-        <v>1.046144431768193</v>
+        <v>1.016512478952566</v>
       </c>
       <c r="M4">
-        <v>1.054739743071068</v>
+        <v>1.01939005663588</v>
       </c>
       <c r="N4">
-        <v>1.052102764780316</v>
+        <v>1.022214027046814</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046590481010069</v>
+        <v>1.003720028201662</v>
       </c>
       <c r="D5">
-        <v>1.049072748844756</v>
+        <v>1.010926588016315</v>
       </c>
       <c r="E5">
-        <v>1.044080340274463</v>
+        <v>1.008450476838458</v>
       </c>
       <c r="F5">
-        <v>1.052774024865017</v>
+        <v>1.011721803508128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037533960122873</v>
+        <v>1.042675281249336</v>
       </c>
       <c r="J5">
-        <v>1.050976059627987</v>
+        <v>1.022576294379624</v>
       </c>
       <c r="K5">
-        <v>1.051473032176704</v>
+        <v>1.020673564796116</v>
       </c>
       <c r="L5">
-        <v>1.046492706318832</v>
+        <v>1.018225901563392</v>
       </c>
       <c r="M5">
-        <v>1.055165429765128</v>
+        <v>1.021459680542164</v>
       </c>
       <c r="N5">
-        <v>1.052468566181298</v>
+        <v>1.024028470008784</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046668108613301</v>
+        <v>1.004107480868711</v>
       </c>
       <c r="D6">
-        <v>1.049146545464382</v>
+        <v>1.011284667189574</v>
       </c>
       <c r="E6">
-        <v>1.044147569566487</v>
+        <v>1.008777154341595</v>
       </c>
       <c r="F6">
-        <v>1.052854199179081</v>
+        <v>1.012108387675065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037551472085828</v>
+        <v>1.042785988437876</v>
       </c>
       <c r="J6">
-        <v>1.051037347135061</v>
+        <v>1.022878326364817</v>
       </c>
       <c r="K6">
-        <v>1.051538066250931</v>
+        <v>1.020990401982871</v>
       </c>
       <c r="L6">
-        <v>1.046551141898685</v>
+        <v>1.018511549956846</v>
       </c>
       <c r="M6">
-        <v>1.055236860923855</v>
+        <v>1.021804745577469</v>
       </c>
       <c r="N6">
-        <v>1.052529940723662</v>
+        <v>1.024330930914038</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046134089447216</v>
+        <v>1.00142760242122</v>
       </c>
       <c r="D7">
-        <v>1.048638896320891</v>
+        <v>1.00880837371083</v>
       </c>
       <c r="E7">
-        <v>1.043685089654768</v>
+        <v>1.006518098621078</v>
       </c>
       <c r="F7">
-        <v>1.052302689164817</v>
+        <v>1.009434968075303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0374308401256</v>
+        <v>1.042018958827748</v>
       </c>
       <c r="J7">
-        <v>1.050615660920867</v>
+        <v>1.020788783000564</v>
       </c>
       <c r="K7">
-        <v>1.051090631318141</v>
+        <v>1.018798673118785</v>
       </c>
       <c r="L7">
-        <v>1.046149088199942</v>
+        <v>1.016535512115734</v>
       </c>
       <c r="M7">
-        <v>1.054745434040737</v>
+        <v>1.019417875906458</v>
       </c>
       <c r="N7">
-        <v>1.052107655666676</v>
+        <v>1.022238420158535</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043895967659783</v>
+        <v>0.9898123431911919</v>
       </c>
       <c r="D8">
-        <v>1.04651169163739</v>
+        <v>0.998086859605155</v>
       </c>
       <c r="E8">
-        <v>1.041746970286806</v>
+        <v>0.9967394727365767</v>
       </c>
       <c r="F8">
-        <v>1.049991976413026</v>
+        <v>0.9978596236373311</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036921199100896</v>
+        <v>1.038661736738297</v>
       </c>
       <c r="J8">
-        <v>1.048846479804285</v>
+        <v>1.011720252449636</v>
       </c>
       <c r="K8">
-        <v>1.049214154975895</v>
+        <v>1.009292808108514</v>
       </c>
       <c r="L8">
-        <v>1.044462524566288</v>
+        <v>1.007963791829062</v>
       </c>
       <c r="M8">
-        <v>1.052684959051752</v>
+        <v>1.009068665951696</v>
       </c>
       <c r="N8">
-        <v>1.050335962109979</v>
+        <v>1.01315701125405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039928468516762</v>
+        <v>0.967526225364802</v>
       </c>
       <c r="D9">
-        <v>1.042742365438468</v>
+        <v>0.9775680821840352</v>
       </c>
       <c r="E9">
-        <v>1.038312010192486</v>
+        <v>0.978037614830742</v>
       </c>
       <c r="F9">
-        <v>1.045898508462701</v>
+        <v>0.975701584263451</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036002445126845</v>
+        <v>1.032097857052081</v>
       </c>
       <c r="J9">
-        <v>1.045703283961065</v>
+        <v>0.9942802375866503</v>
       </c>
       <c r="K9">
-        <v>1.045883104492734</v>
+        <v>0.9910358975351076</v>
       </c>
       <c r="L9">
-        <v>1.041467064295643</v>
+        <v>0.9914973586884904</v>
       </c>
       <c r="M9">
-        <v>1.04902913057492</v>
+        <v>0.9892015849909764</v>
       </c>
       <c r="N9">
-        <v>1.047188302568133</v>
+        <v>0.9956922295695604</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037266635363784</v>
+        <v>0.9511465222362588</v>
       </c>
       <c r="D10">
-        <v>1.040214576133379</v>
+        <v>0.962532734280802</v>
       </c>
       <c r="E10">
-        <v>1.036008013235276</v>
+        <v>0.9643460402887066</v>
       </c>
       <c r="F10">
-        <v>1.043153998043618</v>
+        <v>0.9594569764485401</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035375764061804</v>
+        <v>1.027196012467509</v>
       </c>
       <c r="J10">
-        <v>1.043589813655547</v>
+        <v>0.9814420826867862</v>
       </c>
       <c r="K10">
-        <v>1.043645183799177</v>
+        <v>0.9776131083364105</v>
       </c>
       <c r="L10">
-        <v>1.039453583179566</v>
+        <v>0.9793903256983936</v>
       </c>
       <c r="M10">
-        <v>1.046574229453325</v>
+        <v>0.9745989752234681</v>
       </c>
       <c r="N10">
-        <v>1.045071830892363</v>
+        <v>0.9828358430171816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036109829505709</v>
+        <v>0.9436086019162654</v>
       </c>
       <c r="D11">
-        <v>1.039116291943823</v>
+        <v>0.9556268769564148</v>
       </c>
       <c r="E11">
-        <v>1.035006863357959</v>
+        <v>0.9580614141198366</v>
       </c>
       <c r="F11">
-        <v>1.041961699405263</v>
+        <v>0.951992528963756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035100982775788</v>
+        <v>1.024923457208453</v>
       </c>
       <c r="J11">
-        <v>1.042670219635152</v>
+        <v>0.9755312249002406</v>
       </c>
       <c r="K11">
-        <v>1.042671881201568</v>
+        <v>0.9714370972994759</v>
       </c>
       <c r="L11">
-        <v>1.038577652545029</v>
+        <v>0.9738200733140873</v>
       </c>
       <c r="M11">
-        <v>1.045506841745804</v>
+        <v>0.9678803719962422</v>
       </c>
       <c r="N11">
-        <v>1.04415093094298</v>
+        <v>0.9769165911345942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035679488915992</v>
+        <v>0.9407328941297393</v>
       </c>
       <c r="D12">
-        <v>1.038707762866084</v>
+        <v>0.9529945776739059</v>
       </c>
       <c r="E12">
-        <v>1.034634450737414</v>
+        <v>0.9556666237401371</v>
       </c>
       <c r="F12">
-        <v>1.041518221222452</v>
+        <v>0.9491467083845619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034998397194114</v>
+        <v>1.024054140522906</v>
       </c>
       <c r="J12">
-        <v>1.042327958775622</v>
+        <v>0.973276037315391</v>
       </c>
       <c r="K12">
-        <v>1.042309696947719</v>
+        <v>0.9690813538544996</v>
       </c>
       <c r="L12">
-        <v>1.038251666403589</v>
+        <v>0.9716954937401595</v>
       </c>
       <c r="M12">
-        <v>1.045109688609546</v>
+        <v>0.9653176338062879</v>
       </c>
       <c r="N12">
-        <v>1.043808184033772</v>
+        <v>0.9746582009247009</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035771828204438</v>
+        <v>0.9413533341311872</v>
       </c>
       <c r="D13">
-        <v>1.038795420134084</v>
+        <v>0.9535623944078098</v>
       </c>
       <c r="E13">
-        <v>1.034714359224552</v>
+        <v>0.9561831729309779</v>
       </c>
       <c r="F13">
-        <v>1.041613376489314</v>
+        <v>0.9497606135949852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035020425744527</v>
+        <v>1.024241799792035</v>
       </c>
       <c r="J13">
-        <v>1.042401406020184</v>
+        <v>0.9737626041153876</v>
       </c>
       <c r="K13">
-        <v>1.042387416644239</v>
+        <v>0.9695895884975765</v>
       </c>
       <c r="L13">
-        <v>1.038321620106967</v>
+        <v>0.9721538507052413</v>
       </c>
       <c r="M13">
-        <v>1.045194910250992</v>
+        <v>0.9658705287352873</v>
       </c>
       <c r="N13">
-        <v>1.043881735581845</v>
+        <v>0.9751454587053632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036074270812478</v>
+        <v>0.943372498531138</v>
       </c>
       <c r="D14">
-        <v>1.039082534677328</v>
+        <v>0.9554107103361286</v>
       </c>
       <c r="E14">
-        <v>1.034976090735163</v>
+        <v>0.9578647367727599</v>
       </c>
       <c r="F14">
-        <v>1.041925053816688</v>
+        <v>0.9517588408269357</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035092513648697</v>
+        <v>1.024852130175286</v>
       </c>
       <c r="J14">
-        <v>1.042641942257135</v>
+        <v>0.975346070650312</v>
       </c>
       <c r="K14">
-        <v>1.042641956415089</v>
+        <v>0.971243674919261</v>
       </c>
       <c r="L14">
-        <v>1.038550719288185</v>
+        <v>0.9736456285537591</v>
       </c>
       <c r="M14">
-        <v>1.045474026869214</v>
+        <v>0.9676699550337332</v>
       </c>
       <c r="N14">
-        <v>1.044122613407843</v>
+        <v>0.9767311739443937</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036260528821849</v>
+        <v>0.9446062351244958</v>
       </c>
       <c r="D15">
-        <v>1.039259358416743</v>
+        <v>0.9565403631184288</v>
       </c>
       <c r="E15">
-        <v>1.035137280033871</v>
+        <v>0.958892571340034</v>
       </c>
       <c r="F15">
-        <v>1.042117007734</v>
+        <v>0.9529800330107941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03513686038223</v>
+        <v>1.025224749385975</v>
       </c>
       <c r="J15">
-        <v>1.042790053670284</v>
+        <v>0.976313570362387</v>
       </c>
       <c r="K15">
-        <v>1.04279869934381</v>
+        <v>0.9722544033762143</v>
       </c>
       <c r="L15">
-        <v>1.038691791429809</v>
+        <v>0.9745571941299238</v>
       </c>
       <c r="M15">
-        <v>1.045645909504411</v>
+        <v>0.9687694869463562</v>
       </c>
       <c r="N15">
-        <v>1.044270935156187</v>
+        <v>0.9777000476170333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037343318414627</v>
+        <v>0.9516366854739152</v>
       </c>
       <c r="D16">
-        <v>1.040287385562145</v>
+        <v>0.9629820930712084</v>
       </c>
       <c r="E16">
-        <v>1.036074381192845</v>
+        <v>0.9647550675931289</v>
       </c>
       <c r="F16">
-        <v>1.04323304309173</v>
+        <v>0.9599426069268436</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035393927810033</v>
+        <v>1.027343458555741</v>
       </c>
       <c r="J16">
-        <v>1.043650749144492</v>
+        <v>0.9818264042958275</v>
       </c>
       <c r="K16">
-        <v>1.043709687477887</v>
+        <v>0.9780147530747408</v>
       </c>
       <c r="L16">
-        <v>1.039511628698785</v>
+        <v>0.9797525877101573</v>
       </c>
       <c r="M16">
-        <v>1.046644974336259</v>
+        <v>0.9750359060893625</v>
       </c>
       <c r="N16">
-        <v>1.045132852916692</v>
+        <v>0.9832207104069901</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038021382585736</v>
+        <v>0.9559216974289777</v>
       </c>
       <c r="D17">
-        <v>1.040931228469308</v>
+        <v>0.9669119161701526</v>
       </c>
       <c r="E17">
-        <v>1.036661251660239</v>
+        <v>0.9683326372665279</v>
       </c>
       <c r="F17">
-        <v>1.043932043566626</v>
+        <v>0.9641892730889891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035554259051076</v>
+        <v>1.028630581214147</v>
       </c>
       <c r="J17">
-        <v>1.04418943977703</v>
+        <v>0.985185861191689</v>
       </c>
       <c r="K17">
-        <v>1.044279972960689</v>
+        <v>0.9815260858349546</v>
       </c>
       <c r="L17">
-        <v>1.040024789121714</v>
+        <v>0.9829196672148343</v>
       </c>
       <c r="M17">
-        <v>1.04727047164136</v>
+        <v>0.9788557455619438</v>
       </c>
       <c r="N17">
-        <v>1.045672308551716</v>
+        <v>0.986584938116979</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038416480543237</v>
+        <v>0.958378777203675</v>
       </c>
       <c r="D18">
-        <v>1.04130641190859</v>
+        <v>0.9691665524965731</v>
       </c>
       <c r="E18">
-        <v>1.03700322618195</v>
+        <v>0.9703855439596708</v>
       </c>
       <c r="F18">
-        <v>1.044339382947308</v>
+        <v>0.9666254044215613</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03564744751051</v>
+        <v>1.029367065395528</v>
       </c>
       <c r="J18">
-        <v>1.044503220786124</v>
+        <v>0.9871119448515957</v>
       </c>
       <c r="K18">
-        <v>1.044612200046359</v>
+        <v>0.9835396181310347</v>
       </c>
       <c r="L18">
-        <v>1.040323714173226</v>
+        <v>0.9847358213779102</v>
       </c>
       <c r="M18">
-        <v>1.047634890315605</v>
+        <v>0.9810462165333056</v>
       </c>
       <c r="N18">
-        <v>1.045986535165835</v>
+        <v>0.9885137570366076</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038551130520803</v>
+        <v>0.9592096468589263</v>
       </c>
       <c r="D19">
-        <v>1.041434279324186</v>
+        <v>0.9699291661874833</v>
       </c>
       <c r="E19">
-        <v>1.037119773917011</v>
+        <v>0.9710799834178586</v>
       </c>
       <c r="F19">
-        <v>1.044478211963448</v>
+        <v>0.9674493623834661</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035679166540242</v>
+        <v>1.029615839261952</v>
       </c>
       <c r="J19">
-        <v>1.044610139820913</v>
+        <v>0.9877632047801255</v>
       </c>
       <c r="K19">
-        <v>1.044725411674019</v>
+        <v>0.984220509970095</v>
       </c>
       <c r="L19">
-        <v>1.040425573681856</v>
+        <v>0.9853499719056772</v>
       </c>
       <c r="M19">
-        <v>1.047759076370774</v>
+        <v>0.9817869484110763</v>
       </c>
       <c r="N19">
-        <v>1.046093606037917</v>
+        <v>0.9891659418289365</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037948674781229</v>
+        <v>0.9554663897988018</v>
       </c>
       <c r="D20">
-        <v>1.040862187493874</v>
+        <v>0.9664942200419573</v>
       </c>
       <c r="E20">
-        <v>1.036598320985246</v>
+        <v>0.9679523428282456</v>
       </c>
       <c r="F20">
-        <v>1.043857086430821</v>
+        <v>0.9637379306628742</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035537091200918</v>
+        <v>1.028493979015005</v>
       </c>
       <c r="J20">
-        <v>1.044131687757814</v>
+        <v>0.9848289260747836</v>
       </c>
       <c r="K20">
-        <v>1.044218829324127</v>
+        <v>0.9811529753266653</v>
       </c>
       <c r="L20">
-        <v>1.039969772585509</v>
+        <v>0.9825831332477549</v>
       </c>
       <c r="M20">
-        <v>1.047203405607988</v>
+        <v>0.9784498508806104</v>
       </c>
       <c r="N20">
-        <v>1.045614474518009</v>
+        <v>0.9862274961112663</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035985227131301</v>
+        <v>0.9427800769608521</v>
       </c>
       <c r="D21">
-        <v>1.03899800267242</v>
+        <v>0.9548683508527762</v>
       </c>
       <c r="E21">
-        <v>1.034899032380141</v>
+        <v>0.9573712875234748</v>
       </c>
       <c r="F21">
-        <v>1.04183328947183</v>
+        <v>0.9511725098984489</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035071299942006</v>
+        <v>1.024673122215537</v>
       </c>
       <c r="J21">
-        <v>1.042571129293765</v>
+        <v>0.9748814862359059</v>
       </c>
       <c r="K21">
-        <v>1.042567019036881</v>
+        <v>0.9707583541074014</v>
       </c>
       <c r="L21">
-        <v>1.03848327269344</v>
+        <v>0.9732079268557865</v>
       </c>
       <c r="M21">
-        <v>1.045391852829451</v>
+        <v>0.9671419919382185</v>
       </c>
       <c r="N21">
-        <v>1.044051699881942</v>
+        <v>0.9762659297668301</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034746951767993</v>
+        <v>0.9343594496911755</v>
       </c>
       <c r="D22">
-        <v>1.037822566633807</v>
+        <v>0.9471651544127172</v>
       </c>
       <c r="E22">
-        <v>1.033827484915468</v>
+        <v>0.9503646445577014</v>
       </c>
       <c r="F22">
-        <v>1.040557336216914</v>
+        <v>0.9428431451915985</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034775429790635</v>
+        <v>1.022123356858984</v>
       </c>
       <c r="J22">
-        <v>1.041585987064986</v>
+        <v>0.9682777495189608</v>
       </c>
       <c r="K22">
-        <v>1.041524655404572</v>
+        <v>0.9638613328572662</v>
       </c>
       <c r="L22">
-        <v>1.037545019641464</v>
+        <v>0.9669879658235492</v>
       </c>
       <c r="M22">
-        <v>1.044248927560561</v>
+        <v>0.9596387924119063</v>
       </c>
       <c r="N22">
-        <v>1.043065158638202</v>
+        <v>0.9696528149862881</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03540374919986</v>
+        <v>0.9388689311869518</v>
       </c>
       <c r="D23">
-        <v>1.03844601047015</v>
+        <v>0.9512890656395466</v>
       </c>
       <c r="E23">
-        <v>1.034395834779091</v>
+        <v>0.9541152148633043</v>
       </c>
       <c r="F23">
-        <v>1.041234082228255</v>
+        <v>0.9473026638522108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03493256307302</v>
+        <v>1.023490035297493</v>
       </c>
       <c r="J23">
-        <v>1.042108609587797</v>
+        <v>0.9718142530118762</v>
       </c>
       <c r="K23">
-        <v>1.042077597837236</v>
+        <v>0.9675545629352912</v>
       </c>
       <c r="L23">
-        <v>1.038042754125237</v>
+        <v>0.9703185608596561</v>
       </c>
       <c r="M23">
-        <v>1.044855192085349</v>
+        <v>0.9636566679549837</v>
       </c>
       <c r="N23">
-        <v>1.04358852334494</v>
+        <v>0.9731943407198059</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037981529560808</v>
+        <v>0.9556722537685397</v>
       </c>
       <c r="D24">
-        <v>1.040893385248661</v>
+        <v>0.9666830744522239</v>
       </c>
       <c r="E24">
-        <v>1.036626757689905</v>
+        <v>0.9681242855481975</v>
       </c>
       <c r="F24">
-        <v>1.043890957494845</v>
+        <v>0.9639419985710703</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035544849633181</v>
+        <v>1.028555747580037</v>
       </c>
       <c r="J24">
-        <v>1.04415778473208</v>
+        <v>0.9849903125012145</v>
       </c>
       <c r="K24">
-        <v>1.044246458770714</v>
+        <v>0.9813216742135499</v>
       </c>
       <c r="L24">
-        <v>1.03999463340345</v>
+        <v>0.9827352942594501</v>
       </c>
       <c r="M24">
-        <v>1.047233711169441</v>
+        <v>0.9786333727693532</v>
       </c>
       <c r="N24">
-        <v>1.045640608552971</v>
+        <v>0.9863891117249343</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040957059822397</v>
+        <v>0.9735312267118511</v>
       </c>
       <c r="D25">
-        <v>1.04371939159953</v>
+        <v>0.9830899726400035</v>
       </c>
       <c r="E25">
-        <v>1.039202446152456</v>
+        <v>0.9830687617462682</v>
       </c>
       <c r="F25">
-        <v>1.046959435784122</v>
+        <v>0.9816656307926394</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036242444834491</v>
+        <v>1.033880019170046</v>
       </c>
       <c r="J25">
-        <v>1.046518994002345</v>
+        <v>0.9989834272435334</v>
       </c>
       <c r="K25">
-        <v>1.046747238722924</v>
+        <v>0.9959565924867489</v>
       </c>
       <c r="L25">
-        <v>1.042244320767399</v>
+        <v>0.9959357255795409</v>
       </c>
       <c r="M25">
-        <v>1.049977302236462</v>
+        <v>0.9945553922422047</v>
       </c>
       <c r="N25">
-        <v>1.048005171011235</v>
+        <v>1.00040209829522</v>
       </c>
     </row>
   </sheetData>
